--- a/biology/Zoologie/Geodia_composita/Geodia_composita.xlsx
+++ b/biology/Zoologie/Geodia_composita/Geodia_composita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geodia composita est une espèce d'éponges de la famille des Geodiidae présente dans le Canal du Mozambique ainsi qu'au nord et au nord-ouest de Madagascar dans l'océan Indien[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geodia composita est une espèce d'éponges de la famille des Geodiidae présente dans le Canal du Mozambique ainsi qu'au nord et au nord-ouest de Madagascar dans l'océan Indien.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite par Ernst Bösraug (d) en 1913[2],[1].
-Sa localité type est située près des côtes de l'île Europa[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite par Ernst Bösraug (d) en 1913,.
+Sa localité type est située près des côtes de l'île Europa.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) E. Bösraug, 1913, « Die Tetractinelliden », p. 231-251, in Reise in Ostafrika in den Jahren 1903-1905 mit Mitteln der Hermann und Elise geb. Heckmann Wentzel-Stiftung von Professor Dr. Alfred Voeltzkow. Wissenschaftliche Ergebnisse, Band III. Systematische Arbeiten. E. Schweizerbart'sche Verlagsbuchhandlung, Stuttgart 1908-1917</t>
         </is>
